--- a/biology/Botanique/Crotalaria_mentiens/Crotalaria_mentiens.xlsx
+++ b/biology/Botanique/Crotalaria_mentiens/Crotalaria_mentiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalaria mentiens Polhill est une espèce de plantes légumineuses de la famille des Fabaceae et du genre Crotalaria, endémique du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalaria mentiens Polhill est une espèce de plantes légumineuses de la famille des Fabaceae et du genre Crotalaria, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe annuelle dressée pouvant atteindre 40 cm de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe annuelle dressée pouvant atteindre 40 cm de hauteur.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très rare, endémique du Cameroun, elle n'a été observée que sur un seul site, à Jakiri dans la Région du Nord-Ouest. Son habitat précis est inconnu, mais on suppose qu'elle a été récoltée à une altitude comprise entre 1 200 et 2 200 mètres[4].
-Elle figure sur la liste rouge de l'UICN comme espèce en danger[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très rare, endémique du Cameroun, elle n'a été observée que sur un seul site, à Jakiri dans la Région du Nord-Ouest. Son habitat précis est inconnu, mais on suppose qu'elle a été récoltée à une altitude comprise entre 1 200 et 2 200 mètres.
+Elle figure sur la liste rouge de l'UICN comme espèce en danger.
 </t>
         </is>
       </c>
